--- a/medicine/Enfance/Sarah_Mlynowski/Sarah_Mlynowski.xlsx
+++ b/medicine/Enfance/Sarah_Mlynowski/Sarah_Mlynowski.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Sarah Mlynowski, née le 4 janvier 1977 à Montréal, au Canada, est une romancière spécialisée dans le roman d'amour et dans la littérature d'enfance et de jeunesse.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Elle fait des études en littérature anglaise à l'Université McGill de Montréal. Elle déménage ensuite à Toronto et travaille chez l'éditeur Harlequin Enterprises. 
 À 22 ans, elle publie son premier roman d'amour, City Girl (Milkrun, 2001) qui connaît un grand succès.
@@ -547,42 +561,228 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Romans
-Milkrun (2001) Publié en français sous le titre City Girl, Paris, Harlequin, coll. « Red Dress Ink » no 1, 2003
+          <t>Romans</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Milkrun (2001) Publié en français sous le titre City Girl, Paris, Harlequin, coll. « Red Dress Ink » no 1, 2003
 Fishbowl (2002) Publié en français sous le titre Trois filles en folie, Paris, Harlequin, coll. « Red Dress Ink » no 5, 2003
 As Seen on TV (2003) Publié en français sous le titre Télémania, Paris, Harlequin, coll. « Red Dress Ink » no 12, 2004
 Monkey Business (2004) Publié en français sous le titre Hommes, femmes mode d'emploi, Paris, Harlequin, coll. « Red Dress Ink » no 28, 2005
 Me vs. Me (2006) Publié en français sous le titre Moi et moi vice versa, Paris, Harlequin, coll. « Red Dress Ink » no 46, 2007
-How to Be Bad (2008), en collaboration avec E. Lockhart et Lauren Myracle
-Littérature d'enfance et de jeunesse
-Série Rachel W.
-Bras &amp; Broomsticks (2005) Publié en français sous le titre Sortilèges et Sacs à main, Paris, Albin Michel, coll. « Wiz », 2005 ; réédition, Paris, Le Livre de poche coll. « Jeunesse » no 1350, 2008
+How to Be Bad (2008), en collaboration avec E. Lockhart et Lauren Myracle</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Sarah_Mlynowski</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Sarah_Mlynowski</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Littérature d'enfance et de jeunesse</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>Série Rachel W.</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Bras &amp; Broomsticks (2005) Publié en français sous le titre Sortilèges et Sacs à main, Paris, Albin Michel, coll. « Wiz », 2005 ; réédition, Paris, Le Livre de poche coll. « Jeunesse » no 1350, 2008
 Frogs &amp; French Kisses (2006) Publié en français sous le titre Crapauds et Roméos, Paris, Albin Michel, coll. « Wiz », 2006 ; réédition, Paris, Le Livre de poche coll. « Jeunesse » no 1393, 2009
 Spells &amp; Sleeping Bags (2007) Publié en français sous le titre Tout sur moi !, Paris, Le Livre de poche coll. « Jeunesse » no 1466, 2010
-Parties &amp; Potions (2008) Publié en français sous le titre Deux sorcières pour un garçon, Paris, Albin Michel, coll. « Wiz », 2009
-Série Whatever After
-Fairest of All (2012)
+Parties &amp; Potions (2008) Publié en français sous le titre Deux sorcières pour un garçon, Paris, Albin Michel, coll. « Wiz », 2009</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Sarah_Mlynowski</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Sarah_Mlynowski</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Littérature d'enfance et de jeunesse</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>Série Whatever After</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Fairest of All (2012)
 If the Shoe Fits (2013)
 Sink or Swim (2013)
 Dream On (2013)
 Bad Hair Day (2014)
 Cold As Ice (2014)
 Beauty Queen (2015)
-Once Upon a Frog (2015)
-Autre roman de littérature jeunesse
-Ten Things We Did (and Probably Shouldn't Have) (2011) 
+Once Upon a Frog (2015)</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Sarah_Mlynowski</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Sarah_Mlynowski</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Littérature d'enfance et de jeunesse</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>Autre roman de littérature jeunesse</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Ten Things We Did (and Probably Shouldn't Have) (2011) 
 Gimme a Call (2010) Publié en français sous le titre Parle-moi !, Paris, Albin Michel, coll. « Wiz », 2012
 Don't Even Think About It (2014) Publié en français sous le titre N'y pense même pas !, Paris, Albin Michel, coll. « Wiz », 2015
-Upside-Down Magic (2015)
-Courts romans (novellas)
-Know It All (2010)
+Upside-Down Magic (2015)</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Sarah_Mlynowski</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Sarah_Mlynowski</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Courts romans (novellas)</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Know It All (2010)
 A Nice Fling is Hard to Find (2012)
 A Little Bit Broken (2012)
 Cruisin' (2012)
 Party Girls (2014)
-The Two-Month Itch (2014)
-Recueils de nouvelles
-Girls' Night in (2000), recueil collectif
+The Two-Month Itch (2014)</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Sarah_Mlynowski</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Sarah_Mlynowski</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Recueils de nouvelles</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Girls' Night in (2000), recueil collectif
 American Girls About Town (2004), recueil collectif
 Fireworks: Four Summer Stories (2007), recueil collectif
 Vacations from Hell (2009), recueil collectif</t>
